--- a/teaching/traditional_assets/database/data/hungary/hungary_bank_money_center.xlsx
+++ b/teaching/traditional_assets/database/data/hungary/hungary_bank_money_center.xlsx
@@ -591,10 +591,13 @@
         </is>
       </c>
       <c r="D2">
-        <v>0.136</v>
+        <v>0.261</v>
+      </c>
+      <c r="E2">
+        <v>0.4370000000000001</v>
       </c>
       <c r="F2">
-        <v>0.0723</v>
+        <v>-0.0201</v>
       </c>
       <c r="G2">
         <v>0</v>
@@ -609,85 +612,85 @@
         <v>0</v>
       </c>
       <c r="K2">
-        <v>1262.3</v>
+        <v>946.7</v>
       </c>
       <c r="L2">
-        <v>0.3676102277360359</v>
+        <v>0.2825717099961197</v>
       </c>
       <c r="M2">
-        <v>244.4</v>
+        <v>473.1</v>
       </c>
       <c r="N2">
-        <v>0.01669227879657139</v>
+        <v>0.03813815508387815</v>
       </c>
       <c r="O2">
-        <v>0.1936148300720906</v>
+        <v>0.4997359247913806</v>
       </c>
       <c r="P2">
-        <v>199.2</v>
+        <v>198</v>
       </c>
       <c r="Q2">
-        <v>0.01360516340538879</v>
+        <v>0.01596143459439415</v>
       </c>
       <c r="R2">
-        <v>0.1578071773746336</v>
+        <v>0.2091475652265765</v>
       </c>
       <c r="S2">
-        <v>45.19999999999999</v>
+        <v>275.1</v>
       </c>
       <c r="T2">
-        <v>0.1849427168576104</v>
+        <v>0.5814838300570704</v>
       </c>
       <c r="U2">
-        <v>3511</v>
+        <v>4388.6</v>
       </c>
       <c r="V2">
-        <v>0.2397978349212854</v>
+        <v>0.3537795548533241</v>
       </c>
       <c r="W2">
-        <v>0.1988343703236985</v>
+        <v>0.1323056712413003</v>
       </c>
       <c r="X2">
-        <v>0.05743748478896267</v>
+        <v>0.0596157356696802</v>
       </c>
       <c r="Y2">
-        <v>0.1413968855347358</v>
+        <v>0.0726899355716201</v>
       </c>
       <c r="Z2">
-        <v>0.4713003376430865</v>
+        <v>0.419658290953729</v>
       </c>
       <c r="AA2">
         <v>0</v>
       </c>
       <c r="AB2">
-        <v>0.05622155602194196</v>
+        <v>0.05301303802385098</v>
       </c>
       <c r="AC2">
-        <v>-0.05622155602194196</v>
+        <v>-0.05301303802385098</v>
       </c>
       <c r="AD2">
-        <v>4683.3</v>
+        <v>7253.3</v>
       </c>
       <c r="AE2">
         <v>0</v>
       </c>
       <c r="AF2">
-        <v>4683.3</v>
+        <v>7253.3</v>
       </c>
       <c r="AG2">
-        <v>1172.3</v>
+        <v>2864.7</v>
       </c>
       <c r="AH2">
-        <v>0.2423466219572777</v>
+        <v>0.3689707094240571</v>
       </c>
       <c r="AI2">
-        <v>0.3948253623005134</v>
+        <v>0.4758727471936282</v>
       </c>
       <c r="AJ2">
-        <v>0.07413145480529665</v>
+        <v>0.187608057840415</v>
       </c>
       <c r="AK2">
-        <v>0.1403834409091453</v>
+        <v>0.2639425070253835</v>
       </c>
       <c r="AL2">
         <v>0</v>
@@ -713,10 +716,13 @@
         </is>
       </c>
       <c r="D3">
-        <v>0.136</v>
+        <v>0.261</v>
+      </c>
+      <c r="E3">
+        <v>0.4370000000000001</v>
       </c>
       <c r="F3">
-        <v>0.0723</v>
+        <v>-0.0201</v>
       </c>
       <c r="G3">
         <v>0</v>
@@ -731,85 +737,85 @@
         <v>0</v>
       </c>
       <c r="K3">
-        <v>1262.3</v>
+        <v>946.7</v>
       </c>
       <c r="L3">
-        <v>0.3676102277360359</v>
+        <v>0.2825717099961197</v>
       </c>
       <c r="M3">
-        <v>244.4</v>
+        <v>473.1</v>
       </c>
       <c r="N3">
-        <v>0.01669227879657139</v>
+        <v>0.03813815508387815</v>
       </c>
       <c r="O3">
-        <v>0.1936148300720906</v>
+        <v>0.4997359247913806</v>
       </c>
       <c r="P3">
-        <v>199.2</v>
+        <v>198</v>
       </c>
       <c r="Q3">
-        <v>0.01360516340538879</v>
+        <v>0.01596143459439415</v>
       </c>
       <c r="R3">
-        <v>0.1578071773746336</v>
+        <v>0.2091475652265765</v>
       </c>
       <c r="S3">
-        <v>45.19999999999999</v>
+        <v>275.1</v>
       </c>
       <c r="T3">
-        <v>0.1849427168576104</v>
+        <v>0.5814838300570704</v>
       </c>
       <c r="U3">
-        <v>3511</v>
+        <v>4388.6</v>
       </c>
       <c r="V3">
-        <v>0.2397978349212854</v>
+        <v>0.3537795548533241</v>
       </c>
       <c r="W3">
-        <v>0.1988343703236985</v>
+        <v>0.1323056712413003</v>
       </c>
       <c r="X3">
-        <v>0.05743748478896267</v>
+        <v>0.0596157356696802</v>
       </c>
       <c r="Y3">
-        <v>0.1413968855347358</v>
+        <v>0.0726899355716201</v>
       </c>
       <c r="Z3">
-        <v>0.4713003376430865</v>
+        <v>0.419658290953729</v>
       </c>
       <c r="AA3">
         <v>0</v>
       </c>
       <c r="AB3">
-        <v>0.05622155602194196</v>
+        <v>0.05301303802385098</v>
       </c>
       <c r="AC3">
-        <v>-0.05622155602194196</v>
+        <v>-0.05301303802385098</v>
       </c>
       <c r="AD3">
-        <v>4683.3</v>
+        <v>7253.3</v>
       </c>
       <c r="AE3">
         <v>0</v>
       </c>
       <c r="AF3">
-        <v>4683.3</v>
+        <v>7253.3</v>
       </c>
       <c r="AG3">
-        <v>1172.3</v>
+        <v>2864.7</v>
       </c>
       <c r="AH3">
-        <v>0.2423466219572777</v>
+        <v>0.3689707094240571</v>
       </c>
       <c r="AI3">
-        <v>0.3948253623005134</v>
+        <v>0.4758727471936282</v>
       </c>
       <c r="AJ3">
-        <v>0.07413145480529665</v>
+        <v>0.187608057840415</v>
       </c>
       <c r="AK3">
-        <v>0.1403834409091453</v>
+        <v>0.2639425070253835</v>
       </c>
       <c r="AL3">
         <v>0</v>
